--- a/Experiments' results/Experiments' results - the number of edges' effect on the ZKP of HC.xlsx
+++ b/Experiments' results/Experiments' results - the number of edges' effect on the ZKP of HC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAR\Desktop\מצגת ואקסלים סופיים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DF2E26-80E6-4F22-9C53-ECA770F00F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBACFF7-F070-40CD-9595-0B4933660072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>bit = 0</t>
-  </si>
-  <si>
-    <t>כמות התקשורת (MB)</t>
   </si>
   <si>
     <t>השימוש בזיכרון של המוכיח (MB)</t>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>תוצאות הניסויים עבור המימוש של הוכחה באפס ידיעה למעגל המילטוני בגרף</t>
+  </si>
+  <si>
+    <t>אורך התקשורת (MB)</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
+              <a:t>גודל הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -1207,7 +1207,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזכרון של המוודאת  (</a:t>
+                  <a:t>גודל הזכרון של המוודאת  (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2399,7 +2399,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות התקשורת כתלות במספר הקשתות</a:t>
+              <a:t>אורך התקשורת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -2714,7 +2714,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות התקשורת (</a:t>
+                  <a:t>אורך התקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2905,7 +2905,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
+              <a:t>גודל הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -3411,7 +3411,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
+              <a:t>גודל הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -4448,7 +4448,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות התקשורת כתלות במספר הקשתות</a:t>
+              <a:t>אורך התקשורת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -4781,7 +4781,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>כמות</a:t>
+                  <a:t>אורך</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="he-IL" baseline="0"/>
@@ -4977,7 +4977,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
+              <a:t>גודל הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -5331,7 +5331,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזכרון של המוכיח (</a:t>
+                  <a:t>גודל הזכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -5544,7 +5544,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
+              <a:t>גודל הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -5898,7 +5898,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזכרון של המוודאת (</a:t>
+                  <a:t>גודל הזכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -7159,7 +7159,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות התקשורת כתלות במספר הקשתות</a:t>
+              <a:t>אורך התקשורת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -7499,7 +7499,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות התקשורת (</a:t>
+                  <a:t>אורך התקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -7690,7 +7690,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>כמות הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
+              <a:t>גודל הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -8030,7 +8030,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזכרון של המוכיח (</a:t>
+                  <a:t>גודל הזכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -17057,9 +17057,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1534732</xdr:colOff>
+      <xdr:colOff>1790700</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>32198</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17389,7 +17389,7 @@
   <dimension ref="A2:H70"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="78" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17406,12 +17406,12 @@
   <sheetData>
     <row r="2" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
@@ -17420,22 +17420,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="F5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -17623,25 +17623,25 @@
     </row>
     <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>5</v>
-      </c>
       <c r="F61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -17836,7 +17836,7 @@
   <dimension ref="A2:AQ28"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17887,135 +17887,135 @@
   <sheetData>
     <row r="2" spans="1:43" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="J7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="M7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="P7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="T7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="W7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="Z7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T7" s="9" t="s">
+      <c r="AA7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="AD7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="W7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y7" s="9" t="s">
+      <c r="AG7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="Z7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AH7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AK7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AD7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AN7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AO7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="AI7" s="9" t="s">
+      <c r="AQ7" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK7" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="AM7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AO7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ7" s="9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -18716,28 +18716,28 @@
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="13" t="s">
-        <v>5</v>
-      </c>
       <c r="F22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="H22" s="13" t="s">
         <v>2</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">

--- a/Experiments' results/Experiments' results - the number of edges' effect on the ZKP of HC.xlsx
+++ b/Experiments' results/Experiments' results - the number of edges' effect on the ZKP of HC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BAR\Desktop\מצגת ואקסלים סופיים\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBACFF7-F070-40CD-9595-0B4933660072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB28F53-5954-4125-9861-65C955B01FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,12 +40,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="17">
   <si>
     <t>bit = 0</t>
-  </si>
-  <si>
-    <t>השימוש בזיכרון של המוכיח (MB)</t>
-  </si>
-  <si>
-    <t>השימוש בזיכרון של המוודאת (MB)</t>
   </si>
   <si>
     <t>זמן הריצה של המוכיח (s)</t>
@@ -87,7 +81,13 @@
     <t>תוצאות הניסויים עבור המימוש של הוכחה באפס ידיעה למעגל המילטוני בגרף</t>
   </si>
   <si>
-    <t>אורך התקשורת (MB)</t>
+    <t>מס' הביטים שעוברים בתקשורת (MB)</t>
+  </si>
+  <si>
+    <t>צריכת הזיכרון של המוכיח (MB)</t>
+  </si>
+  <si>
+    <t>צריכת הזיכרון של המוודאת (MB)</t>
   </si>
 </sst>
 </file>
@@ -867,7 +867,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
+              <a:t>צריכת הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -1207,7 +1207,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזכרון של המוודאת  (</a:t>
+                  <a:t>צריכת הזכרון של המוודאת  (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2399,7 +2399,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>אורך התקשורת כתלות במספר הקשתות</a:t>
+              <a:t>מס' הביטים שעוברים בתקשורת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -2714,7 +2714,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>אורך התקשורת (</a:t>
+                  <a:t>מס' הביטים שעוברים בתקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -2905,7 +2905,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
+              <a:t>צריכת הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -3220,7 +3220,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזיכרון של המוכיח (</a:t>
+                  <a:t>צריכת הזיכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -3411,7 +3411,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
+              <a:t>צריכת הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -3726,7 +3726,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>כמות הזיכרון של המוודאת (</a:t>
+                  <a:t>צריכת הזיכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -4448,7 +4448,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>אורך התקשורת כתלות במספר הקשתות</a:t>
+              <a:t>מס' הביטים שעוברים בתקשורת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -4781,11 +4781,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="he-IL"/>
-                  <a:t>אורך</a:t>
+                  <a:t>מס' הביטים שעוברים</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="he-IL" baseline="0"/>
-                  <a:t> התקשורת (</a:t>
+                  <a:t> בתקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -4977,7 +4977,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
+              <a:t>צריכת הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -5331,7 +5331,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזכרון של המוכיח (</a:t>
+                  <a:t>צריכת הזכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -5544,7 +5544,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
+              <a:t>צריכת הזיכרון של המוודאת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -5898,7 +5898,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזכרון של המוודאת (</a:t>
+                  <a:t>צריכת הזכרון של המוודאת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -7159,7 +7159,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>אורך התקשורת כתלות במספר הקשתות</a:t>
+              <a:t>מס' הביטים שעוברים בתקשורת כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -7499,7 +7499,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>אורך התקשורת (</a:t>
+                  <a:t>מס' הביטים שעוברים בתקשורת (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -7690,7 +7690,7 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>גודל הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
+              <a:t>צריכת הזיכרון של המוכיח כתלות במספר הקשתות</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -8030,7 +8030,7 @@
                       </a:sysClr>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>גודל הזכרון של המוכיח (</a:t>
+                  <a:t>צריכת הזכרון של המוכיח (</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
@@ -16568,15 +16568,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
+      <xdr:colOff>106681</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>1954</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1182077</xdr:colOff>
+      <xdr:colOff>876823</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>125261</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16604,15 +16604,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1588867</xdr:colOff>
+      <xdr:colOff>1588865</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>22167</xdr:rowOff>
+      <xdr:rowOff>22166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>29307</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:colOff>584548</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>146137</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16645,10 +16645,10 @@
       <xdr:rowOff>125302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>35861</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1283918</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>87922</xdr:rowOff>
+      <xdr:rowOff>41754</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16679,14 +16679,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>653143</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171673</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>4659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>517769</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>68383</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>62630</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16754,13 +16754,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:rowOff>107951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1328615</xdr:colOff>
+      <xdr:colOff>772439</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>68384</xdr:rowOff>
+      <xdr:rowOff>31316</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16788,15 +16788,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1670049</xdr:colOff>
+      <xdr:colOff>1670047</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>88412</xdr:rowOff>
+      <xdr:rowOff>88411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>166077</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>73069</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>83507</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16860,15 +16860,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1268535</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>77666</xdr:rowOff>
+      <xdr:colOff>1195467</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>98542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>644769</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>39078</xdr:rowOff>
+      <xdr:colOff>571701</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>59954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16939,13 +16939,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>160420</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>40106</xdr:rowOff>
+      <xdr:rowOff>40107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1416844</xdr:colOff>
+      <xdr:colOff>1213884</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
+      <xdr:rowOff>26582</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16975,15 +16975,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1615440</xdr:colOff>
+      <xdr:colOff>1615439</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>30479</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>118056</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141767</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>79744</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17019,9 +17019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1320086</xdr:colOff>
+      <xdr:colOff>1461976</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>64394</xdr:rowOff>
+      <xdr:rowOff>106325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17053,13 +17053,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>338666</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:colOff>1470837</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>88604</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17388,8 +17388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H70"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="78" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="84" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17399,19 +17399,19 @@
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.296875" customWidth="1"/>
     <col min="8" max="8" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
@@ -17420,22 +17420,22 @@
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -17623,25 +17623,25 @@
     </row>
     <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.4">
       <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="9" t="s">
-        <v>7</v>
-      </c>
       <c r="D61" s="9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G61" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -17835,8 +17835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{750505F5-CE9A-497A-9287-9A9FEAAB3B56}">
   <dimension ref="A2:AQ28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView rightToLeft="1" zoomScale="86" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17845,177 +17845,177 @@
     <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.59765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="11" max="11" width="18.796875" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.59765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7.296875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.3984375" customWidth="1"/>
-    <col min="18" max="18" width="18.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5" customWidth="1"/>
+    <col min="18" max="18" width="18.796875" customWidth="1"/>
+    <col min="19" max="19" width="20" customWidth="1"/>
+    <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.296875" customWidth="1"/>
     <col min="22" max="22" width="25.59765625" customWidth="1"/>
     <col min="23" max="23" width="7.296875" customWidth="1"/>
     <col min="24" max="24" width="14.3984375" customWidth="1"/>
     <col min="25" max="25" width="18.796875" customWidth="1"/>
     <col min="26" max="26" width="20" customWidth="1"/>
-    <col min="27" max="27" width="16.5" customWidth="1"/>
+    <col min="27" max="27" width="28" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="25.59765625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="6.69921875" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.3984375" customWidth="1"/>
     <col min="32" max="32" width="18.796875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5" customWidth="1"/>
+    <col min="34" max="34" width="28" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="25.59765625" customWidth="1"/>
     <col min="37" max="37" width="7.296875" customWidth="1"/>
     <col min="38" max="38" width="14.3984375" customWidth="1"/>
     <col min="39" max="39" width="19.296875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="20" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20" customWidth="1"/>
+    <col min="41" max="41" width="28" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="24.296875" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:43" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:43" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="W7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="Z7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="AA7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="AD7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="AG7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="P7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="T7" s="9" t="s">
+      <c r="AH7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="AK7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="AN7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="W7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AO7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AP7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ7" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
@@ -18716,28 +18716,28 @@
     </row>
     <row r="18" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
       <c r="C22" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
